--- a/Tools/foods.xlsx
+++ b/Tools/foods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14175"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主食" sheetId="1" r:id="rId1"/>
@@ -2505,8 +2505,8 @@
   <sheetPr/>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4986,8 +4986,8 @@
   <sheetPr/>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7090,7 +7090,7 @@
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
         <v>170</v>
@@ -7648,7 +7648,7 @@
         <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>188</v>
@@ -7710,7 +7710,7 @@
         <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
         <v>190</v>
